--- a/Running projects/DHL Office - Shahrah e Faisal Karachi/VO/02- variation order for extra work for VRF unitss.xlsx
+++ b/Running projects/DHL Office - Shahrah e Faisal Karachi/VO/02- variation order for extra work for VRF unitss.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0AC859-2A40-4F52-B367-2EC0A62F6B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE70060-1504-4FE2-ABA3-D0092CC207E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,67 +433,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>553085</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9915525" y="38100"/>
-          <a:ext cx="2467610" cy="1057275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>140335</xdr:colOff>
       <xdr:row>50</xdr:row>
@@ -519,7 +458,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -845,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -873,7 +812,7 @@
       </c>
       <c r="B16" s="35"/>
       <c r="I16" s="9">
-        <v>45547</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.35">
@@ -977,7 +916,9 @@
       <c r="B26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="15">
+        <v>0</v>
+      </c>
       <c r="D26" s="15">
         <v>45000</v>
       </c>
@@ -1007,7 +948,9 @@
       <c r="B27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="15">
+        <v>0</v>
+      </c>
       <c r="D27" s="15">
         <v>45000</v>
       </c>
@@ -1037,7 +980,9 @@
       <c r="B28" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="33">
+        <v>0</v>
+      </c>
       <c r="D28" s="33">
         <v>90000</v>
       </c>
@@ -1067,7 +1012,9 @@
       <c r="B29" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="33"/>
+      <c r="C29" s="33">
+        <v>0</v>
+      </c>
       <c r="D29" s="33">
         <v>160000</v>
       </c>
@@ -1097,7 +1044,9 @@
       <c r="B30" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="33"/>
+      <c r="C30" s="33">
+        <v>0</v>
+      </c>
       <c r="D30" s="33">
         <v>15000</v>
       </c>
@@ -1127,7 +1076,9 @@
       <c r="B31" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="33">
+        <v>0</v>
+      </c>
       <c r="D31" s="33">
         <v>1800</v>
       </c>
@@ -1150,7 +1101,7 @@
         <v>96768</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="7" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31">
         <v>7</v>
       </c>
@@ -1158,18 +1109,18 @@
         <v>17</v>
       </c>
       <c r="C32" s="33">
-        <v>155000</v>
+        <v>85000</v>
       </c>
       <c r="D32" s="33">
         <v>10000</v>
       </c>
       <c r="E32" s="16">
         <f t="shared" si="0"/>
-        <v>46200.000000000007</v>
+        <v>26600.000000000004</v>
       </c>
       <c r="F32" s="16">
         <f t="shared" si="1"/>
-        <v>211200</v>
+        <v>121600</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>10</v>
@@ -1179,7 +1130,7 @@
       </c>
       <c r="I32" s="15">
         <f t="shared" si="2"/>
-        <v>211200</v>
+        <v>121600</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
@@ -1190,18 +1141,18 @@
         <v>18</v>
       </c>
       <c r="C33" s="33">
-        <v>60000</v>
+        <v>56640</v>
       </c>
       <c r="D33" s="33">
         <v>0</v>
       </c>
       <c r="E33" s="16">
         <f t="shared" si="0"/>
-        <v>16800</v>
+        <v>15859.2</v>
       </c>
       <c r="F33" s="16">
         <f t="shared" si="1"/>
-        <v>76800</v>
+        <v>72499.199999999997</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>19</v>
@@ -1211,7 +1162,7 @@
       </c>
       <c r="I33" s="15">
         <f t="shared" si="2"/>
-        <v>230400</v>
+        <v>217497.59999999998</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.3">
@@ -1221,17 +1172,19 @@
       <c r="B34" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="33"/>
+      <c r="C34" s="33">
+        <v>1450</v>
+      </c>
       <c r="D34" s="33">
         <v>300</v>
       </c>
       <c r="E34" s="16">
         <f t="shared" si="0"/>
-        <v>84.000000000000014</v>
+        <v>490.00000000000006</v>
       </c>
       <c r="F34" s="16">
         <f t="shared" si="1"/>
-        <v>384</v>
+        <v>2240</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>27</v>
@@ -1241,27 +1194,29 @@
       </c>
       <c r="I34" s="15">
         <f t="shared" si="2"/>
-        <v>18432</v>
+        <v>107520</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.3">
       <c r="A35" s="31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="33"/>
+      <c r="C35" s="33">
+        <v>2200</v>
+      </c>
       <c r="D35" s="33">
         <v>200</v>
       </c>
       <c r="E35" s="16">
         <f t="shared" si="0"/>
-        <v>56.000000000000007</v>
+        <v>672.00000000000011</v>
       </c>
       <c r="F35" s="16">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>3072</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>27</v>
@@ -1271,27 +1226,29 @@
       </c>
       <c r="I35" s="15">
         <f t="shared" ref="I35" si="3">H35*F35</f>
-        <v>13824</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+        <v>165888</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="33"/>
+      <c r="C36" s="33">
+        <v>4500</v>
+      </c>
       <c r="D36" s="33">
         <v>500</v>
       </c>
       <c r="E36" s="16">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>1400.0000000000002</v>
       </c>
       <c r="F36" s="16">
         <f t="shared" si="1"/>
-        <v>640</v>
+        <v>6400</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>26</v>
@@ -1301,7 +1258,7 @@
       </c>
       <c r="I36" s="15">
         <f t="shared" si="2"/>
-        <v>5760</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="26" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1317,7 +1274,7 @@
       <c r="H37" s="38"/>
       <c r="I37" s="34">
         <f>SUM(I26:I36)</f>
-        <v>1030784</v>
+        <v>1221273.6000000001</v>
       </c>
       <c r="K37" s="22"/>
     </row>

--- a/Running projects/DHL Office - Shahrah e Faisal Karachi/VO/02- variation order for extra work for VRF unitss.xlsx
+++ b/Running projects/DHL Office - Shahrah e Faisal Karachi/VO/02- variation order for extra work for VRF unitss.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE70060-1504-4FE2-ABA3-D0092CC207E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0513A0B-2E00-4843-801B-89211C9B5E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$16:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$229</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -435,13 +435,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>140335</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>407035</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>14553</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -488,6 +488,199 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2038350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9FBC19-7BEA-408C-B61C-85BAB3206290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2324100" y="28575"/>
+          <a:ext cx="2381250" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{926CDF78-B459-6645-C17B-79BDD5F6E2D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="42402125"/>
+          <a:ext cx="7000875" cy="6223000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>746126</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1518ECC-FC8B-DD16-5B3B-C12C7BADD111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95251" y="20320000"/>
+          <a:ext cx="6826250" cy="9937750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FABC8E38-7BE2-8859-9975-9EC10F5223D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142876" y="30575249"/>
+          <a:ext cx="6699250" cy="9890125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -782,18 +975,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:K53"/>
+  <dimension ref="A7:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A95" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N215" sqref="N215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="4" width="12.28515625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="11.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="3" customWidth="1"/>
@@ -825,7 +1020,7 @@
       </c>
       <c r="B18" s="27"/>
     </row>
-    <row r="19" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
     </row>
@@ -842,7 +1037,7 @@
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -909,7 +1104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>1</v>
       </c>
@@ -941,7 +1136,7 @@
         <v>57600</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.3">
       <c r="A27" s="31">
         <v>2</v>
       </c>
@@ -1005,7 +1200,7 @@
         <v>115200</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.3">
       <c r="A29" s="31">
         <v>4</v>
       </c>
@@ -1101,7 +1296,7 @@
         <v>96768</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="7" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31">
         <v>7</v>
       </c>
@@ -1109,18 +1304,18 @@
         <v>17</v>
       </c>
       <c r="C32" s="33">
-        <v>85000</v>
+        <v>95000</v>
       </c>
       <c r="D32" s="33">
         <v>10000</v>
       </c>
       <c r="E32" s="16">
         <f t="shared" si="0"/>
-        <v>26600.000000000004</v>
+        <v>29400.000000000004</v>
       </c>
       <c r="F32" s="16">
         <f t="shared" si="1"/>
-        <v>121600</v>
+        <v>134400</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>10</v>
@@ -1130,7 +1325,7 @@
       </c>
       <c r="I32" s="15">
         <f t="shared" si="2"/>
-        <v>121600</v>
+        <v>134400</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
@@ -1158,11 +1353,11 @@
         <v>19</v>
       </c>
       <c r="H33" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="2"/>
-        <v>217497.59999999998</v>
+        <v>289996.79999999999</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" ht="63" x14ac:dyDescent="0.3">
@@ -1274,7 +1469,7 @@
       <c r="H37" s="38"/>
       <c r="I37" s="34">
         <f>SUM(I26:I36)</f>
-        <v>1221273.6000000001</v>
+        <v>1306572.8</v>
       </c>
       <c r="K37" s="22"/>
     </row>
@@ -1298,29 +1493,46 @@
       <c r="A43" s="25"/>
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
+    <row r="44" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
+    <row r="45" spans="1:11" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="1:11" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
+    <row r="46" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="22"/>
+    </row>
+    <row r="47" spans="1:11" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="22"/>
+      <c r="K47" s="18"/>
     </row>
     <row r="48" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="20"/>
+      <c r="A48" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="24"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
@@ -1328,41 +1540,16 @@
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
       <c r="I48" s="22"/>
-    </row>
-    <row r="49" spans="1:11" s="7" customFormat="1" ht="10.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="22"/>
-      <c r="K49" s="18"/>
-    </row>
-    <row r="50" spans="1:11" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="22"/>
-      <c r="K50" s="18"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K53" s="8"/>
+      <c r="K48" s="18"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1375,6 +1562,10 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="32" max="8" man="1"/>
+    <brk id="75" max="8" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>